--- a/me-docs/23.Xay-dung-chuc-nang-bai-viet-noi-bat.xlsx
+++ b/me-docs/23.Xay-dung-chuc-nang-bai-viet-noi-bat.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460ED479-8332-4881-9156-70331026C4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79B29F6-D5EA-43A2-A1A8-C31A3B306B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="show featured" sheetId="1" r:id="rId1"/>
+    <sheet name="change featured" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>resources\views\admin\pages\article\list.blade.php</t>
   </si>
@@ -46,6 +47,15 @@
   </si>
   <si>
     <t>Check browser</t>
+  </si>
+  <si>
+    <t>resources\lang\en\notify.php</t>
+  </si>
+  <si>
+    <t>app\Http\Controllers\ArticleController.php</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -402,6 +412,231 @@
         <a:xfrm>
           <a:off x="609600" y="16573500"/>
           <a:ext cx="10999565" cy="5743575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>475200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB66850-8F40-42EE-BA85-C594D58A5A58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8400000" cy="2457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>541562</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A7E784-8CF3-4D7F-B900-ADF88C9C308C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3238500"/>
+          <a:ext cx="10904762" cy="2400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113067</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA79A124-F9C9-4C9A-A31F-3F1453753CD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6096000"/>
+          <a:ext cx="9866667" cy="3200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>68563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C482121-E16C-4CCF-83CE-A113AB68CF58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9715500"/>
+          <a:ext cx="10887075" cy="5593063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>532303</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C21EBF-AD5C-4A36-B3CB-11CFACFE35A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15811500"/>
+          <a:ext cx="11505103" cy="5905500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -678,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
@@ -723,4 +958,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F54746-9339-49CC-B37F-CA67D5F6C2CC}">
+  <dimension ref="A2:B83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/23.Xay-dung-chuc-nang-bai-viet-noi-bat.xlsx
+++ b/me-docs/23.Xay-dung-chuc-nang-bai-viet-noi-bat.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79B29F6-D5EA-43A2-A1A8-C31A3B306B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5277E7F3-9C9A-42F4-BAAC-6DE83A1C20BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="show featured" sheetId="1" r:id="rId1"/>
     <sheet name="change featured" sheetId="2" r:id="rId2"/>
+    <sheet name="get featured" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>resources\views\admin\pages\article\list.blade.php</t>
   </si>
@@ -56,6 +57,15 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>app\Http\Controllers\HomeController.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\home\index.blade.php</t>
+  </si>
+  <si>
+    <t>views\news\block\featured.blade.php</t>
   </si>
 </sst>
 </file>
@@ -637,6 +647,275 @@
         <a:xfrm>
           <a:off x="609600" y="15811500"/>
           <a:ext cx="11505103" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598781</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>18286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E339DE-9EDD-4507-B5E7-88C480BAC3EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10352381" cy="6114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE8FA27-A8D9-4235-B39C-73C27B1FB1E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6858000"/>
+          <a:ext cx="10885714" cy="3761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598933</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7354B6-B72F-474A-B04A-05D9041F2463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11049000"/>
+          <a:ext cx="9133333" cy="2390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>181193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C4D294-7A82-4A1A-A506-122DC95E12AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13906500"/>
+          <a:ext cx="11268075" cy="2467193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>47275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F8F838-3FD3-417F-8D4E-3BF7DF2F520D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16764000"/>
+          <a:ext cx="11382375" cy="5762275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27428</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>85405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0A89DC-D786-4CA9-B253-07210BF42DBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22669500"/>
+          <a:ext cx="9171428" cy="2561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -964,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F54746-9339-49CC-B37F-CA67D5F6C2CC}">
   <dimension ref="A2:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -999,4 +1278,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB368CE-1D47-4199-898E-FE1AB2130892}">
+  <dimension ref="A2:A88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/23.Xay-dung-chuc-nang-bai-viet-noi-bat.xlsx
+++ b/me-docs/23.Xay-dung-chuc-nang-bai-viet-noi-bat.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5277E7F3-9C9A-42F4-BAAC-6DE83A1C20BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F56C0-1A86-4DDE-AF9A-A2C3824FD69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="show featured" sheetId="1" r:id="rId1"/>
     <sheet name="change featured" sheetId="2" r:id="rId2"/>
     <sheet name="get featured" sheetId="3" r:id="rId3"/>
+    <sheet name="featured left" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>resources\views\admin\pages\article\list.blade.php</t>
   </si>
@@ -66,6 +67,15 @@
   </si>
   <si>
     <t>views\news\block\featured.blade.php</t>
+  </si>
+  <si>
+    <t>public\news\css\main_styles.css</t>
+  </si>
+  <si>
+    <t>resources\views\news\partials\article\image.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\partials\article\content.blade.php</t>
   </si>
 </sst>
 </file>
@@ -916,6 +926,275 @@
         <a:xfrm>
           <a:off x="609600" y="22669500"/>
           <a:ext cx="9171428" cy="2561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>589105</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FF24C4-1660-49B4-962F-345538F2BA12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11561905" cy="1895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227733</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D071DE-73AA-421C-B0F0-916C69DDFC8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2667000"/>
+          <a:ext cx="6933333" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>522667</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A389D56-4079-49A4-BED3-B9C174D90020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4572000"/>
+          <a:ext cx="9666667" cy="2838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>351162</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7771F375-CA28-48F2-AED7-D6860B813DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7810500"/>
+          <a:ext cx="10104762" cy="2342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>427200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>27881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA322420-E513-4649-B64C-DDB8E658881F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10477500"/>
+          <a:ext cx="11400000" cy="5552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>115605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47194477-0438-4A11-B2B4-9EC83D8159F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16383001"/>
+          <a:ext cx="11439525" cy="6402104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1284,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB368CE-1D47-4199-898E-FE1AB2130892}">
   <dimension ref="A2:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
@@ -1319,4 +1598,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459170F9-0241-487F-8248-179E492C1920}">
+  <dimension ref="A2:A86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/23.Xay-dung-chuc-nang-bai-viet-noi-bat.xlsx
+++ b/me-docs/23.Xay-dung-chuc-nang-bai-viet-noi-bat.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F56C0-1A86-4DDE-AF9A-A2C3824FD69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19569EE0-74AE-416B-9683-8F31C0A6D6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="show featured" sheetId="1" r:id="rId1"/>
     <sheet name="change featured" sheetId="2" r:id="rId2"/>
     <sheet name="get featured" sheetId="3" r:id="rId3"/>
     <sheet name="featured left" sheetId="4" r:id="rId4"/>
+    <sheet name="featured right" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>resources\views\admin\pages\article\list.blade.php</t>
   </si>
@@ -76,6 +77,9 @@
   </si>
   <si>
     <t>resources\views\news\partials\article\content.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\block\featured.blade.php</t>
   </si>
 </sst>
 </file>
@@ -1195,6 +1199,143 @@
         <a:xfrm>
           <a:off x="609600" y="16383001"/>
           <a:ext cx="11439525" cy="6402104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>474819</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36805769-7CD8-4205-B9C1-AF0E1663B1A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11447619" cy="3761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>474819</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>18476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA5D208-F32E-4B95-98FE-AF8DD0EBFB13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4572000"/>
+          <a:ext cx="11447619" cy="4590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>491607</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D990A3-2817-494C-92F5-87F8BC69D711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9525000"/>
+          <a:ext cx="10854807" cy="6019800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1604,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459170F9-0241-487F-8248-179E492C1920}">
   <dimension ref="A2:A86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
@@ -1644,4 +1785,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FB2299-F6E6-49CD-B4D5-7CDD942525F0}">
+  <dimension ref="A2:A50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>